--- a/medicine/Mort/Ossuaire_de_Sedlec/Ossuaire_de_Sedlec.xlsx
+++ b/medicine/Mort/Ossuaire_de_Sedlec/Ossuaire_de_Sedlec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’ossuaire de Sedlec (en allemand : Sedletz-Ossarium) est situé dans la chapelle funéraire de Tous-les-Saints du cimetière du monastère cistercien de Sedlec (anciennement en allemand Sedletz), à Kutná Hora, en République tchèque.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'origine de cet ossuaire remonte à celle de l'église de l’Assomption de Sedlec appartenant à l'ordre cistercien. En 1278, le père-abbé est envoyé en Terre sainte par Ottokar II de Bohême et revient de ce pèlerinage avec une poignée de terre provenant du Golgotha qu'il répand sur la surface du cimetière lequel gagne ainsi une réputation de terre sainte propre à assurer le repos éternel en attendant la résurrection.
 En 1348, la peste noire frappe durement la Bohême et cette année-là, ce sont quelque trente mille personnes qui y sont enterrées.
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>L'Ossuaire de Sedlec dans les arts
-Un jeu de société, Skulls of Sedlec, sorti en 2020, prend pour cadre l'Ossuaire de Sedlec.</t>
+          <t>L'Ossuaire de Sedlec dans les arts</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Un jeu de société, Skulls of Sedlec, sorti en 2020, prend pour cadre l'Ossuaire de Sedlec.</t>
         </is>
       </c>
     </row>
